--- a/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2020-4.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2020-4.xlsx
@@ -49,12 +49,12 @@
     <t>Liquidación Voluntaria Persona Natural</t>
   </si>
   <si>
+    <t>Confesión De Deuda, Citación</t>
+  </si>
+  <si>
     <t>Obligación De Dar, Cumplimiento</t>
   </si>
   <si>
-    <t>Confesión De Deuda, Citación</t>
-  </si>
-  <si>
     <t>Sanitario Código Reclamación Multas Art.171</t>
   </si>
   <si>
@@ -64,55 +64,55 @@
     <t>Arrendamiento,Cobro Renta Bs.raices Urbanos</t>
   </si>
   <si>
+    <t>Perjuicios, Indemnización De</t>
+  </si>
+  <si>
     <t>Minera, Manifestación (Concesión Para Explotación)</t>
   </si>
   <si>
-    <t>Perjuicios, Indemnización De</t>
+    <t>Arrendamiento,Restitución Por Expiración Tiempo Estipulado</t>
+  </si>
+  <si>
+    <t>Revocatorias, Acción Pauliana</t>
+  </si>
+  <si>
+    <t>Nombre, Autorización Cambio De</t>
+  </si>
+  <si>
+    <t>Bienes Raíces, Reclamo Negativa Del Conservador</t>
+  </si>
+  <si>
+    <t>Otros Sumarios</t>
+  </si>
+  <si>
+    <t>Pesos, Cobro De</t>
+  </si>
+  <si>
+    <t>Contrato, Cumplimiento De</t>
+  </si>
+  <si>
+    <t>Medida Prejudicial Precautoria</t>
+  </si>
+  <si>
+    <t>Arrendamiento Bienes Inmuebles, Menor A 4 U.t.m.</t>
+  </si>
+  <si>
+    <t>Acto Administrativo, Nulidad De</t>
+  </si>
+  <si>
+    <t>Cheque, Notificación Protesto</t>
+  </si>
+  <si>
+    <t>Liquidación Voluntaria Empresa Deudora</t>
+  </si>
+  <si>
+    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+  </si>
+  <si>
+    <t>Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
   </si>
   <si>
     <t>Demencia S/Cert. Compin, Interdicción Por</t>
-  </si>
-  <si>
-    <t>Contrato, Cumplimiento De</t>
-  </si>
-  <si>
-    <t>Pesos, Cobro De</t>
-  </si>
-  <si>
-    <t>Otros Sumarios</t>
-  </si>
-  <si>
-    <t>Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
-  </si>
-  <si>
-    <t>Arrendamiento,Restitución Por Expiración Tiempo Estipulado</t>
-  </si>
-  <si>
-    <t>Revocatorias, Acción Pauliana</t>
-  </si>
-  <si>
-    <t>Nombre, Autorización Cambio De</t>
-  </si>
-  <si>
-    <t>Bienes Raíces, Reclamo Negativa Del Conservador</t>
-  </si>
-  <si>
-    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
-  </si>
-  <si>
-    <t>Medida Prejudicial Precautoria</t>
-  </si>
-  <si>
-    <t>Arrendamiento Bienes Inmuebles, Menor A 4 U.t.m.</t>
-  </si>
-  <si>
-    <t>Liquidación Voluntaria Empresa Deudora</t>
-  </si>
-  <si>
-    <t>Cheque, Notificación Protesto</t>
-  </si>
-  <si>
-    <t>Acto Administrativo, Nulidad De</t>
   </si>
   <si>
     <t>Corte De Apelaciones De Arica</t>
